--- a/data/georgia_census/imereti/samtredia/average_wages.xlsx
+++ b/data/georgia_census/imereti/samtredia/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CAD7F0-33EC-473F-BD37-E2A90C8E023F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{995C79E2-5EF9-419D-B272-1594BC78EBF9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3748BAC4-C101-4241-BBF9-980B19234CCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE4C54BB-7B60-4B43-88CB-5B704568B620}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC02D6D-C14C-4F56-9D44-4AF70C09AFC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80ED684D-FDA1-4A15-95FF-36B44DC44419}"/>
 </file>